--- a/biology/Microbiologie/Nocardia_sputorum/Nocardia_sputorum.xlsx
+++ b/biology/Microbiologie/Nocardia_sputorum/Nocardia_sputorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nocardia sputorum est une espèce de bactéries gram positives de la famille des Nocardiaceae qui a été identifiée au Japon dans échantillons cliniques de crachats.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette bactérie a été initialement décrite sur la base de deux souches isolées de prélèvements cliniques dans des crachats de patients[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette bactérie a été initialement décrite sur la base de deux souches isolées de prélèvements cliniques dans des crachats de patients.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les souches bactériennes de cette espèce N. sputorum sont des actinomycètes non mobiles, aérobies à Gram positif[2]. 
-Les hydrolysats cellulaires totaux présentent des quantités d'acide meso-diaminopimélique, d'arabinose et de galactose caractéristiques des Nocardiaceae[2].
-Elles possèdent un acide muramique de type N-glycolyl. La quinone isoprénoide majoritaire est la MK-8(H4, ω-cycl.) principaux lipides sont le diphosphatidylglycérol, le phosphatidyléthanolamine, le phosphatidylinositol et le phosphatidylinositol mannosides[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les souches bactériennes de cette espèce N. sputorum sont des actinomycètes non mobiles, aérobies à Gram positif. 
+Les hydrolysats cellulaires totaux présentent des quantités d'acide meso-diaminopimélique, d'arabinose et de galactose caractéristiques des Nocardiaceae.
+Elles possèdent un acide muramique de type N-glycolyl. La quinone isoprénoide majoritaire est la MK-8(H4, ω-cycl.) principaux lipides sont le diphosphatidylglycérol, le phosphatidyléthanolamine, le phosphatidylinositol et le phosphatidylinositol mannosides.
 </t>
         </is>
       </c>
@@ -575,14 +591,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nocardia sputorum Hamada et al. 2023[3],[2].
-La souche type de cette espèce est la souche IFM 12276, déposée sous la référence NBRC 115477 et TBRC 17096 dans deux banques de cultures bactériennes. Une seconde souche, IFM 12275 a aussi été caractérisée lors de la description originale de la nouvelle espèce[2].
-Étymologie
-L'étymologie du nom spécifique de N. sputorum est la suivante : spu.to’rum. L. neut. n. sputum, crachat; L. gen. neut. pl. n. sputorum, d'un crachat[3],[2].
-Phylogénie
-L'analyse phylogénique de la séquence de l'ARN ribosomal 16S a permis de classer la souche IFM 12276 dans la famille Nocardiaceae et le genre Nocardia. Cette souche présente une similarité maximale de 99,6 % avec les espèces N. beijingensis et N. sputipour cette même séquence. Ensuite, la similarité de séquence reste élevée avec 99,3 % avec les espèces N. niwae et N. araoensis. Les acides mycoliques de cette espèce co-migrent avec ceux de l'espèce N. niwae mais l'espèce N. sputorum peut être différenciée de cette dernière et des autres espèces du genre Nocardia par un ensemble de caractéristiques chimiotaxonomiques[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nocardia sputorum Hamada et al. 2023,.
+La souche type de cette espèce est la souche IFM 12276, déposée sous la référence NBRC 115477 et TBRC 17096 dans deux banques de cultures bactériennes. Une seconde souche, IFM 12275 a aussi été caractérisée lors de la description originale de la nouvelle espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nocardia_sputorum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nocardia_sputorum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom spécifique de N. sputorum est la suivante : spu.to’rum. L. neut. n. sputum, crachat; L. gen. neut. pl. n. sputorum, d'un crachat,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nocardia_sputorum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nocardia_sputorum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénique de la séquence de l'ARN ribosomal 16S a permis de classer la souche IFM 12276 dans la famille Nocardiaceae et le genre Nocardia. Cette souche présente une similarité maximale de 99,6 % avec les espèces N. beijingensis et N. sputipour cette même séquence. Ensuite, la similarité de séquence reste élevée avec 99,3 % avec les espèces N. niwae et N. araoensis. Les acides mycoliques de cette espèce co-migrent avec ceux de l'espèce N. niwae mais l'espèce N. sputorum peut être différenciée de cette dernière et des autres espèces du genre Nocardia par un ensemble de caractéristiques chimiotaxonomiques.
 </t>
         </is>
       </c>
